--- a/src/pages/assets/news.xlsx
+++ b/src/pages/assets/news.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chut\mongo\wdsmain\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chut\mongo\wdsmain\FinalStocks\src\pages\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975346AA-A8D4-43DA-A8D1-52CC57C4C408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83660811-3247-4ACE-9A6C-CA8034801EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{15E38672-7791-4233-88C3-966A7B799DFB}"/>
   </bookViews>
@@ -34,30 +34,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t xml:space="preserve">news </t>
   </si>
   <si>
-    <t>there was a boy who get into sea andnever found</t>
-  </si>
-  <si>
-    <t>how is deep seek seekin the opportunities</t>
-  </si>
-  <si>
-    <t>how about the boy</t>
-  </si>
-  <si>
-    <t>who is the boy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shut the f**k </t>
-  </si>
-  <si>
-    <t>what this is 2nd round</t>
-  </si>
-  <si>
     <t>round</t>
+  </si>
+  <si>
+    <t>new1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new2 of round1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new3 of round1 </t>
+  </si>
+  <si>
+    <t>new4 of r1</t>
+  </si>
+  <si>
+    <t>new5 of round 1</t>
+  </si>
+  <si>
+    <t>new2 of round2</t>
+  </si>
+  <si>
+    <t>new3 of round12</t>
+  </si>
+  <si>
+    <t>new4 of r2</t>
+  </si>
+  <si>
+    <t>new5 of round 2</t>
+  </si>
+  <si>
+    <t>news 6 of round 2</t>
   </si>
 </sst>
 </file>
@@ -412,7 +424,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,7 +435,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -434,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -442,7 +454,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -450,7 +462,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -458,7 +470,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -466,7 +478,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -474,7 +486,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -482,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -490,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -498,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -506,7 +518,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -514,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/pages/assets/news.xlsx
+++ b/src/pages/assets/news.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chut\mongo\wdsmain\FinalStocks\src\pages\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83660811-3247-4ACE-9A6C-CA8034801EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C42A8E-A781-4972-960C-D3242A2A7433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{15E38672-7791-4233-88C3-966A7B799DFB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t xml:space="preserve">news </t>
   </si>
@@ -42,34 +42,142 @@
     <t>round</t>
   </si>
   <si>
-    <t>new1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new2 of round1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">new3 of round1 </t>
-  </si>
-  <si>
-    <t>new4 of r1</t>
-  </si>
-  <si>
-    <t>new5 of round 1</t>
-  </si>
-  <si>
-    <t>new2 of round2</t>
-  </si>
-  <si>
-    <t>new3 of round12</t>
-  </si>
-  <si>
-    <t>new4 of r2</t>
-  </si>
-  <si>
-    <t>new5 of round 2</t>
-  </si>
-  <si>
-    <t>news 6 of round 2</t>
+    <t>Suzlon Secures 650 MW Wind Power Project in Chhattisgarh</t>
+  </si>
+  <si>
+    <t>Asian Paints Cuts Workforce by 10% Amid Financial Strain</t>
+  </si>
+  <si>
+    <t>Union Bank of India, in collaboration with Titan, has introduced the Black-Titan Credit Card. The card offers a ₹500 cashback on purchases above ₹2,000, aiming to attract premium users</t>
+  </si>
+  <si>
+    <t>IOCL Pioneers Green Hydrogen Production in India with Advanced PEM Electrolyzer Technology</t>
+  </si>
+  <si>
+    <t>In a move to enhance operational efficiency, DLF has integrated blockchain technology into its land acquisition and title verification systems, ensuring greater transparency and security</t>
+  </si>
+  <si>
+    <t>SAIL Faces Operational Setback After Blast Furnace Outage at Bhilai Plant</t>
+  </si>
+  <si>
+    <t>Rahul Mammen Under ED Scrutiny for Alleged FDI Norm Violations and Irregularities in Cross-Border Fund Transfers</t>
+  </si>
+  <si>
+    <t>IndiGo Airlines Set to Acquire Rival Carrier in Multi-Billion Dollar Deal</t>
+  </si>
+  <si>
+    <t>ITC’s Paper &amp; Packaging Division Sets World Record for Sustainable Production with 100% Recycled Material</t>
+  </si>
+  <si>
+    <t>RVNL Acquires AAA Spinners for ₹500 Crore to Strengthen In-House Textile Capabilities</t>
+  </si>
+  <si>
+    <t>Rising Tensions: Increased Chinese Activity Near LAC Sparks Concern Among Indian Officials</t>
+  </si>
+  <si>
+    <t>Adani Ports Acquires 20% Stake in UAE’s Mina Al Hamriya Port for $625M</t>
+  </si>
+  <si>
+    <t>Steel Industry Faces Carbon Tax Challenges under new EU Regulations</t>
+  </si>
+  <si>
+    <t>Rakesh Jhunjunwalla invests 600M in Yes Bank</t>
+  </si>
+  <si>
+    <t>Ola Electric to Set Up 1 Lakh Charging Stations Across India by 2026</t>
+  </si>
+  <si>
+    <t>Mahindra &amp; Mahindra to Launch India’s First Hydrogen-Powered SUV by 2026</t>
+  </si>
+  <si>
+    <t>Sun Pharma Acquires Major European Biotech Firm for $4 Billion, Expanding Oncology Portfolio</t>
+  </si>
+  <si>
+    <t>Ambuja Cements Partners with Tata Group for India's Largest Green Cement Plant, Aiming for Carbon-Neutral Production</t>
+  </si>
+  <si>
+    <t>IPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budget </t>
+  </si>
+  <si>
+    <t>Surana Telecom &amp; Power Reports 300% Surge in Quarterly Profits After Secret Partnership with AI Startup</t>
+  </si>
+  <si>
+    <t>Jio increases their mobile plans by 10%</t>
+  </si>
+  <si>
+    <t>Barlex Polyfirm opens its 4th manufacturing unit in Solan, Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>In response to rising fixed deposit rates triggered by the RBI's last update, which increased the repo rate by 25 basis points to 6.50%, the public sector lender Bank of Maharashtra (BoM) has increased interest rates on fixed deposits under ₹2.5 Cr</t>
+  </si>
+  <si>
+    <t>Govt Proposes Two-SIM Limit Per Citizen to Combat Cybercrime</t>
+  </si>
+  <si>
+    <t>FSSAI has identified inconsistencies in hygiene and food safety standards at multiple KFC outlets nationwide, suspends Food License for 3 months</t>
+  </si>
+  <si>
+    <t>Mahasagar Travels Orders 100 Mercedes Benz 2441 Super High Deck Coach Buses to Expand Fleet</t>
+  </si>
+  <si>
+    <t>Mahindra’s EV Division Secures $1.2 Billion Funding to Expand Production and R&amp;D Facilities</t>
+  </si>
+  <si>
+    <t>L&amp;T Faces Allegations of Toxic Work Culture Amid Reports of Employee Burnout and Discontent. Board Decides to give each employee 2 extra holidays every month</t>
+  </si>
+  <si>
+    <t>India Grapples with HMPV Surge, 10,000 Cases Reported Last Week; Nationwide Lockdown Under Discussion</t>
+  </si>
+  <si>
+    <t>Suzlon Energy Q3 Results: Revenue Up by 22%, Profit Declines by 2.5%</t>
+  </si>
+  <si>
+    <t>Nathan Anderson Forms New Entity to Intensify Corporate Fraud msInvestigations</t>
+  </si>
+  <si>
+    <t>Cipla Develops HIV/AIDS Vaccine with 93% Efficacy in Landmark Breakthrough</t>
+  </si>
+  <si>
+    <t>IOCL and BPCL Report Joint Efforts to Optimize Crude Procurement, Resulting in 15% Reduction in Operating Costs</t>
+  </si>
+  <si>
+    <t>IndiGo Introduces Fresh, Hot Meals for Every Passenger on All International Flights</t>
+  </si>
+  <si>
+    <t>HAL Launches $2 Billion Innovation Fund to Accelerate Development of AI-Driven Military Aircraft</t>
+  </si>
+  <si>
+    <t>JSW Steel's Export Orders Surge After Securing Multi-Billion Dollar Contract with European Infrastructure Projects</t>
+  </si>
+  <si>
+    <t>Mukesh Ambani steps down as Reliance MD, announces transition of leadership to his sons</t>
+  </si>
+  <si>
+    <t>Infrastructure Built with Ambuja Cements Faces Widespread Collapse Amid Allegations of Poor Quality Control</t>
+  </si>
+  <si>
+    <t>ITC Reports Record Q4 Earnings, Surpasses Analyst Expectations with 25% Growth in FMCG</t>
+  </si>
+  <si>
+    <t>Zerodha is bullish on Mazdock, has recommended buy rating on the stock with a target price of Rs 3500</t>
+  </si>
+  <si>
+    <t>DLF’s flagship Rs.5000 Cr Gurugram commercial project hit a roadblock due to pending environmental clearances, pushing the anticipated launch date to late 2025</t>
+  </si>
+  <si>
+    <t>SEBI Lifts Freeze On Former Yes Bank MD Rana Kapoor's Demat Accounts &amp; MF Folios</t>
+  </si>
+  <si>
+    <t>SEBI Implements Special Call Auction to Reassess Investment Holding Company Valuations</t>
+  </si>
+  <si>
+    <t>Union Bank Posts 5% Rise in Quarter 3 Profits, Beats Previous Quarter by 1.4%</t>
+  </si>
+  <si>
+    <t>Global Lithium Shortage Hits EV Industry  Automakers Face Production Crisis</t>
   </si>
 </sst>
 </file>
@@ -93,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,12 +209,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,112 +546,400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88DB075-48B5-4C04-A7CB-CC1B1418DE8F}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" customWidth="1"/>
+    <col min="2" max="2" width="194.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>6</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
+      <c r="B40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>7</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>7</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>7</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>7</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
